--- a/AAccount.xlsx
+++ b/AAccount.xlsx
@@ -1,60 +1,80 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowWidth="19830" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="144525"/>
+  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
+  <si>
+    <t>日期</t>
+  </si>
   <si>
     <t>孟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差额</t>
   </si>
   <si>
     <t>结算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换锁芯</t>
+  </si>
+  <si>
+    <t>锅碗瓢盆</t>
+  </si>
+  <si>
+    <t>生活用品</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0.0;[Red]#,##0.0"/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color indexed="10"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -74,39 +94,55 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -148,74 +184,74 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Cans" typeface="Euphemia"/>
         <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
         <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -348,8 +384,8 @@
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
+                <a:satMod val="350000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
@@ -385,69 +421,156 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="_h" fmla="val 21600"/>
+            <a:gd name="_w" fmla="val 21600"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:pathLst>
+            <a:path w="21600" h="21600"/>
+          </a:pathLst>
+        </a:custGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr/>
+      <a:lstStyle/>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="27" style="3" customWidth="1"/>
-    <col min="6" max="8" width="9" style="1"/>
+    <col min="1" max="1" width="18" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9" style="3"/>
+    <col min="3" max="3" width="10.25" style="3"/>
+    <col min="4" max="4" width="27" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9" style="5"/>
+    <col min="6" max="6" width="18" style="1" customWidth="1"/>
+    <col min="7" max="9" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="5"/>
       <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <f>SUM(F:F)</f>
+        <v>-424</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
+        <v>41924</v>
+      </c>
+      <c r="B2" s="3">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
+      <c r="C2" s="3">
+        <v>130</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1">
+        <f>(B2-C2)/2</f>
+        <v>-65</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="2"/>
-      <c r="F2" s="1">
-        <f>SUM(B:B)</f>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
+        <v>41924</v>
+      </c>
+      <c r="B3" s="3">
         <v>0</v>
       </c>
-      <c r="G2" s="1">
-        <f>SUM(C:C)</f>
+      <c r="C3" s="3">
+        <v>600</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1">
+        <f>(B3-C3)/2</f>
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>41925</v>
+      </c>
+      <c r="B4" s="3">
         <v>0</v>
       </c>
-      <c r="H2" s="1">
-        <f>F2-G2</f>
-        <v>0</v>
+      <c r="C4" s="3">
+        <v>118</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1">
+        <f>(B4-C4)/2</f>
+        <v>-59</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>